--- a/data/trans_camb/P31_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P31_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +526,18 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza menos de 3 dias de caminata o cualquier otra actividad</t>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,55</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>13,15</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,47</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 6,75</t>
+          <t>-8,06; 6,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 6,25</t>
+          <t>-9,18; 5,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 2,25</t>
+          <t>-12,4; 1,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 26,44</t>
+          <t>0,63; 16,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 6,74</t>
+          <t>-0,3; 15,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 14,19</t>
+          <t>4,31; 23,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 14,6</t>
+          <t>-7,8; 9,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 4,52</t>
+          <t>-5,92; 11,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 5,44</t>
+          <t>-9,54; 9,33</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-11,78; 7,43</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 12,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 5,28</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,06; 3,96</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 9,93</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; 9,43</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,7%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,49%</t>
+          <t>-16,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-44,56%</t>
+          <t>-50,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>104,67%</t>
+          <t>147,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,53%</t>
+          <t>135,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>84,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>60,98%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,7%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>-1,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-12,76%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>49,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-5,94%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-10,27%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,17; 99,32</t>
+          <t>-55,81; 92,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,69; 90,21</t>
+          <t>-66,5; 82,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,79; 35,57</t>
+          <t>-84,73; 26,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,94; 236,42</t>
+          <t>-6,67; 687,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 63,39</t>
+          <t>-17,88; 621,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 140,78</t>
+          <t>19,71; 200,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,34; 158,97</t>
+          <t>-40,22; 88,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 47,87</t>
+          <t>-31,97; 103,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,1; 57,9</t>
+          <t>-43,05; 69,76</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-48,49; 52,35</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 123,39</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-40,68; 54,82</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-44,05; 39,69</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-16,02; 115,07</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-22,86; 102,4</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>-7,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,5</t>
+          <t>-14,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,42</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>13,91</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-4,85</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 7,46</t>
+          <t>-17,63; 7,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 7,15</t>
+          <t>-19,82; 7,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,71; -1,59</t>
+          <t>-27,04; -4,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 21,47</t>
+          <t>-4,17; 13,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 14,16</t>
+          <t>-7,45; 11,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 11,21</t>
+          <t>5,49; 21,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 11,32</t>
+          <t>-0,52; 15,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 7,61</t>
+          <t>-2,99; 13,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 1,98</t>
+          <t>-7,55; 10,63</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 11,67</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 10,93</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-9,75; 7,98</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-13,12; 1,83</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 9,68</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 10,23</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-14,25%</t>
+          <t>-17,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-28,59%</t>
+          <t>-28,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-47,67%</t>
+          <t>-55,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>77,4%</t>
+          <t>36,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>83,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>43,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,64%</t>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19,43%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-2,41%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-22,31%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17,02%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,64%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,09; 40,84</t>
+          <t>-50,62; 38,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,05; 45,21</t>
+          <t>-61,24; 41,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,83; -5,35</t>
+          <t>-76,53; -16,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 158,35</t>
+          <t>-28,47; 164,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 103,51</t>
+          <t>-42,92; 124,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 80,59</t>
+          <t>25,56; 169,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 62,92</t>
+          <t>-5,79; 115,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 42,35</t>
+          <t>-15,74; 106,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,34; 11,68</t>
+          <t>-28,03; 59,71</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-24,83; 75,9</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-15,03; 60,67</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-36,77; 45,17</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-49,13; 11,65</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-19,85; 70,23</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-18,38; 74,56</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,62</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-4,2</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,78</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-4,44</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-4,22</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 7,72</t>
+          <t>-9,03; 8,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 6,66</t>
+          <t>-8,26; 8,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 6,99</t>
+          <t>-7,46; 11,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 18,76</t>
+          <t>-16,15; 3,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 12,25</t>
+          <t>-12,44; 4,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 12,95</t>
+          <t>4,13; 17,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 11,11</t>
+          <t>-1,93; 11,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 7,39</t>
+          <t>-4,93; 9,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,69</t>
+          <t>-9,7; 6,51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,51; 4,8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 11,46</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 7,98</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 8,87</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-10,21; 2,06</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-9,61; 2,77</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-11,09%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,62%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>46,3%</t>
+          <t>-28,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>-19,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>-5,9%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-13,91%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>24,79%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-17,47%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-16,74%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,85; 46,46</t>
+          <t>-34,8; 51,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 37,39</t>
+          <t>-32,56; 55,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 42,04</t>
+          <t>-29,57; 74,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,44; 90,64</t>
+          <t>-57,56; 22,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 56,0</t>
+          <t>-51,07; 25,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 59,94</t>
+          <t>14,11; 84,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 51,86</t>
+          <t>-6,71; 53,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 35,5</t>
+          <t>-16,61; 44,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 31,73</t>
+          <t>-31,07; 26,88</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-36,95; 18,31</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 56,01</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-11,47; 39,31</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-13,95; 43,0</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-35,8; 9,84</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-35,07; 12,71</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,84</t>
+          <t>12,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,01</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,01</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8,97</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8,9</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,28</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 15,27</t>
+          <t>1,42; 16,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,21; 20,53</t>
+          <t>4,82; 19,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 16,51</t>
+          <t>-7,67; 5,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 16,17</t>
+          <t>0,05; 14,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 12,02</t>
+          <t>-11,42; 5,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 15,41</t>
+          <t>1,86; 15,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 14,01</t>
+          <t>-0,94; 11,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,27; 13,69</t>
+          <t>-1,42; 11,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 13,71</t>
+          <t>-4,33; 11,0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-8,57; 8,99</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3,74; 13,61</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,82; 14,12</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; 6,31</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 10,94</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-7,43; 4,23</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>58,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>86,01%</t>
+          <t>81,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>60,38%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>42,6%</t>
+          <t>53,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>-12,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>49,81%</t>
+          <t>25,73%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>48,55%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>47,98%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>47,63%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>25,91%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-4,26%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,22; 140,01</t>
+          <t>5,99; 134,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>25,89; 183,46</t>
+          <t>23,25; 172,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,24; 147,02</t>
+          <t>-41,32; 44,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,73; 84,57</t>
+          <t>-1,4; 132,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 67,15</t>
+          <t>-39,7; 26,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,57; 82,34</t>
+          <t>7,11; 81,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,48; 86,71</t>
+          <t>-4,03; 63,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,03; 84,23</t>
+          <t>-6,28; 62,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,36; 82,73</t>
+          <t>-14,41; 46,11</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-23,7; 35,77</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>17,44; 85,16</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17,1; 87,68</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-15,73; 39,62</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 59,44</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-24,32; 17,59</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>10,56</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>6,48</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>11,26</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,04; 14,41</t>
+          <t>1,99; 14,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,89; 15,24</t>
+          <t>1,33; 14,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,53; 19,6</t>
+          <t>-2,17; 11,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 12,68</t>
+          <t>3,95; 19,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 13,1</t>
+          <t>-4,42; 13,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 13,85</t>
+          <t>-4,83; 11,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,68; 11,62</t>
+          <t>-3,8; 12,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,47; 11,08</t>
+          <t>-11,61; 6,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,57; 14,11</t>
+          <t>1,43; 19,62</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,56; 12,14</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 11,07</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 11,46</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 6,36</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>4,55; 17,78</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 9,57</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>63,14%</t>
+          <t>68,64%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>61,36%</t>
+          <t>64,88%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>87,09%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>73,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>31,9%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>-12,7%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>47,73%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>29,89%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>34,26%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>58,22%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>11,36%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>5,88; 157,87</t>
+          <t>11,58; 155,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,02; 154,48</t>
+          <t>7,63; 159,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19,86; 212,22</t>
+          <t>-14,4; 123,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 59,81</t>
+          <t>16,83; 149,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 62,32</t>
+          <t>-15,29; 70,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 66,63</t>
+          <t>-16,92; 53,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,81; 71,86</t>
+          <t>-13,44; 59,61</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,06; 66,03</t>
+          <t>-40,79; 34,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,96; 88,76</t>
+          <t>3,71; 113,55</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-18,54; 47,83</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 68,63</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3,7; 70,54</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-22,97; 38,29</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>19,18; 112,4</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-12,37; 37,88</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-10,41</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>-14,37</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>11,78</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-6,74</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-11,78</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>8,67</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 14,08</t>
+          <t>-9,29; 13,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 0,33</t>
+          <t>-19,6; 1,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 4,51</t>
+          <t>-19,54; 1,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 13,47</t>
+          <t>-5,7; 13,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 5,42</t>
+          <t>-12,27; 10,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 13,09</t>
+          <t>-10,07; 7,92</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 9,5</t>
+          <t>-15,73; 4,13</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 0,24</t>
+          <t>-24,87; -2,61</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 7,02</t>
+          <t>-1,82; 23,04</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-15,28; 10,77</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 7,66</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-13,44; 0,98</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-19,49; -3,23</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 17,38</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-10,04; 6,84</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-37,05%</t>
+          <t>-31,8%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>-32,05%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-10,31%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>-13,43%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-20,02%</t>
+          <t>-35,04%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-4,44%</t>
+          <t>44,23%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-4,18%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-19,54%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-34,17%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>38,2%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-3,19%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 67,9</t>
+          <t>-30,23; 69,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-62,54; 3,43</t>
+          <t>-60,75; 12,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-55,1; 22,43</t>
+          <t>-61,98; 9,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 40,21</t>
+          <t>-27,11; 109,41</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 16,65</t>
+          <t>-43,92; 62,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 39,86</t>
+          <t>-21,88; 22,5</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 31,56</t>
+          <t>-34,38; 11,57</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-37,27; 0,9</t>
+          <t>-55,26; -6,68</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 23,41</t>
+          <t>-6,81; 109,7</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-32,46; 32,83</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-17,96; 25,33</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-35,89; 2,96</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-51,86; -10,97</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 92,96</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-26,73; 24,7</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>5,14</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-2,2</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 6,2</t>
+          <t>-1,97; 5,91</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,9</t>
+          <t>-3,93; 4,36</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 3,03</t>
+          <t>-7,61; -0,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5,46; 12,42</t>
+          <t>0,67; 8,02</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 5,84</t>
+          <t>-2,99; 4,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,83; 8,62</t>
+          <t>4,51; 11,36</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,07</t>
+          <t>-0,98; 5,76</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,72</t>
+          <t>-4,35; 2,95</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,86</t>
+          <t>0,72; 8,59</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 3,61</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 7,74</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 4,08</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 0,56</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 7,17</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 2,66</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-19,51%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>-3,19%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>18,03%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>23,19%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-9,95%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>21,43%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 36,8</t>
+          <t>-9,03; 34,92</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 22,55</t>
+          <t>-18,19; 26,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 17,34</t>
+          <t>-36,13; 0,19</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>20,43; 53,84</t>
+          <t>3,59; 59,33</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 25,44</t>
+          <t>-14,78; 24,72</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,79; 36,03</t>
+          <t>16,03; 47,78</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>12,51; 39,21</t>
+          <t>-3,46; 24,55</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 18,01</t>
+          <t>-16,2; 12,69</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 22,67</t>
+          <t>2,8; 36,53</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-14,79; 13,29</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>9,68; 37,05</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 19,75</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-20,93; 2,61</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>7,4; 38,71</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-10,64; 11,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
